--- a/classfiers/bottleneck/elm/nearmiss/bottleneck_elm_lin_nearmiss_results.xlsx
+++ b/classfiers/bottleneck/elm/nearmiss/bottleneck_elm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="E2" t="n">
-        <v>0.95</v>
+        <v>0.7857142857142858</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9588235294117646</v>
+        <v>0.8409090909090909</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8786549707602339</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.7407407407407408</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9529411764705882</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7096774193548387</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8703124999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.96218487394958</v>
+        <v>0.9</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6894117647058824</v>
+        <v>0.7726190476190476</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7909099123520376</v>
+        <v>0.8294668294668295</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9221464353285173</v>
+        <v>0.8396103896103897</v>
       </c>
     </row>
   </sheetData>
